--- a/planner_and_overviews.xlsx
+++ b/planner_and_overviews.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\IPL-CricPred\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D1C89D-C97B-4D7C-BC43-AEC13A4B5F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CE2A28-BDD8-4522-8E65-43F840B1186A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="links" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="693">
   <si>
     <t>auction data</t>
   </si>
@@ -2060,6 +2060,57 @@
   </si>
   <si>
     <t>DC has one extra sold player: "Harry Brook"</t>
+  </si>
+  <si>
+    <t>data source</t>
+  </si>
+  <si>
+    <t>https://www.espncricinfo.com/records/trophy/indian-premier-league-117</t>
+  </si>
+  <si>
+    <t>points_table</t>
+  </si>
+  <si>
+    <t>https://www.espncricinfo.com/series/pepsi-indian-premier-league-2015-791129/points-table-standings</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>data for different seasons can be filtered on this page</t>
+  </si>
+  <si>
+    <t>central url to scrape detailed ipl data</t>
+  </si>
+  <si>
+    <t>all_season_summary</t>
+  </si>
+  <si>
+    <t>all_season_batting_card</t>
+  </si>
+  <si>
+    <t>https://www.espncricinfo.com/series/pepsi-indian-premier-league-2015-791129/match-schedule-fixtures-and-results</t>
+  </si>
+  <si>
+    <t>all_season_bowling_card</t>
+  </si>
+  <si>
+    <t>all_season_details</t>
+  </si>
+  <si>
+    <t>click on individual matches to view scorecard tab; still some info from data unfound</t>
+  </si>
+  <si>
+    <t>https://www.espncricinfo.com/series/pepsi-indian-premier-league-2015-791129/chennai-super-kings-vs-mumbai-indians-final-829823/ball-by-ball-commentary</t>
+  </si>
+  <si>
+    <t>commentary tab can be reached from link in I11; still some info unfound</t>
   </si>
 </sst>
 </file>
@@ -2136,7 +2187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2145,8 +2196,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2216,6 +2276,71 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2543175</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Right 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D3FF585-3CB1-93EB-E725-47327B430202}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7191375" y="1123950"/>
+          <a:ext cx="1828800" cy="66675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Shashank Prakash" refreshedDate="45738.548944675924" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="623" xr:uid="{29A737A5-F3F7-4535-B225-14CF1CDE41F0}">
   <cacheSource type="worksheet">
@@ -7257,7 +7382,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E8AE938B-EF3B-4348-8E16-2662BCBD257D}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E8AE938B-EF3B-4348-8E16-2662BCBD257D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="K3:W8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0"/>
@@ -7667,87 +7792,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:E8"/>
+  <dimension ref="B3:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="68.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D5" s="3" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D6" s="3" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D7" s="3" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C8" s="1" t="s">
+      <c r="H7" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H8" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H10" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H11" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H12" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="https://www.kaggle.com/datasets/sunayanagawde/ipl-2023-auction-dataset?select=IPL_Sold_players_2013_23.csv" xr:uid="{5F615C98-A16C-4D21-BBA3-B691BDAB0C7D}"/>
-    <hyperlink ref="D5" r:id="rId2" display="https://www.kaggle.com/datasets/ketkijain/ipl-2024-players-auction-dataset" xr:uid="{C993349F-AE35-4E18-855F-0982A631AD6C}"/>
-    <hyperlink ref="D6" r:id="rId3" display="https://www.kaggle.com/datasets/bhadramohit/tata-ipl-auction-2025-sold-players-dataset" xr:uid="{EC035DA6-61D6-4677-BF1C-78177A38B794}"/>
-    <hyperlink ref="D8" r:id="rId4" display="https://www.kaggle.com/datasets/rajsengo/indian-premier-league-ipl-all-seasons" xr:uid="{98753B1F-1E31-4B2A-BB62-132A35925A26}"/>
-    <hyperlink ref="D7" r:id="rId5" display="https://www.kaggle.com/datasets/souviksamanta1053/ipl-2025-mega-auction-dataset" xr:uid="{F3A347BB-9D9E-4347-9A44-0CE2A43ECDB7}"/>
+    <hyperlink ref="C4" r:id="rId1" display="https://www.kaggle.com/datasets/sunayanagawde/ipl-2023-auction-dataset?select=IPL_Sold_players_2013_23.csv" xr:uid="{5F615C98-A16C-4D21-BBA3-B691BDAB0C7D}"/>
+    <hyperlink ref="C5" r:id="rId2" display="https://www.kaggle.com/datasets/ketkijain/ipl-2024-players-auction-dataset" xr:uid="{C993349F-AE35-4E18-855F-0982A631AD6C}"/>
+    <hyperlink ref="C6" r:id="rId3" display="https://www.kaggle.com/datasets/bhadramohit/tata-ipl-auction-2025-sold-players-dataset" xr:uid="{EC035DA6-61D6-4677-BF1C-78177A38B794}"/>
+    <hyperlink ref="C8" r:id="rId4" display="https://www.kaggle.com/datasets/rajsengo/indian-premier-league-ipl-all-seasons" xr:uid="{98753B1F-1E31-4B2A-BB62-132A35925A26}"/>
+    <hyperlink ref="C7" r:id="rId5" display="https://www.kaggle.com/datasets/souviksamanta1053/ipl-2025-mega-auction-dataset" xr:uid="{F3A347BB-9D9E-4347-9A44-0CE2A43ECDB7}"/>
+    <hyperlink ref="I11" r:id="rId6" xr:uid="{DED535F3-9D9B-4A3D-BC94-93BE93993507}"/>
+    <hyperlink ref="I10" r:id="rId7" xr:uid="{ED4BDD38-7D6C-45E0-9A4F-2091E2C08FBC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -7755,7 +7955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB894F5-E07C-4291-A1BA-E0E7CC21A83A}">
   <dimension ref="A1:AA624"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7949,38 +8149,37 @@
       <c r="K5" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6">
+      <c r="M5" s="1">
         <v>25</v>
       </c>
-      <c r="N5" s="6">
-        <v>23</v>
-      </c>
-      <c r="O5" s="6">
+      <c r="N5" s="1">
+        <v>23</v>
+      </c>
+      <c r="O5" s="1">
         <v>25</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="1">
         <v>21</v>
       </c>
-      <c r="Q5" s="6">
-        <v>23</v>
-      </c>
-      <c r="R5" s="6">
-        <v>23</v>
-      </c>
-      <c r="S5" s="6">
+      <c r="Q5" s="1">
+        <v>23</v>
+      </c>
+      <c r="R5" s="1">
+        <v>23</v>
+      </c>
+      <c r="S5" s="1">
         <v>25</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="1">
         <v>22</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="1">
         <v>20</v>
       </c>
-      <c r="V5" s="6">
+      <c r="V5" s="1">
         <v>20</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="1">
         <v>227</v>
       </c>
       <c r="Y5" s="2" t="s">
@@ -8017,22 +8216,13 @@
       <c r="K6" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="1">
         <v>102</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6">
+      <c r="Q6" s="1">
         <v>1</v>
       </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6">
+      <c r="W6" s="1">
         <v>103</v>
       </c>
       <c r="Y6" s="2" t="s">
@@ -8069,20 +8259,10 @@
       <c r="K7" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="1">
         <v>293</v>
       </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6">
+      <c r="W7" s="1">
         <v>293</v>
       </c>
       <c r="Y7" s="2" t="s">
@@ -8119,40 +8299,40 @@
       <c r="K8" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="1">
         <v>395</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="1">
         <v>25</v>
       </c>
-      <c r="N8" s="6">
-        <v>23</v>
-      </c>
-      <c r="O8" s="6">
+      <c r="N8" s="1">
+        <v>23</v>
+      </c>
+      <c r="O8" s="1">
         <v>25</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="1">
         <v>21</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="1">
         <v>24</v>
       </c>
-      <c r="R8" s="6">
-        <v>23</v>
-      </c>
-      <c r="S8" s="6">
+      <c r="R8" s="1">
+        <v>23</v>
+      </c>
+      <c r="S8" s="1">
         <v>25</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="1">
         <v>22</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="1">
         <v>20</v>
       </c>
-      <c r="V8" s="6">
+      <c r="V8" s="1">
         <v>20</v>
       </c>
-      <c r="W8" s="6">
+      <c r="W8" s="1">
         <v>623</v>
       </c>
       <c r="Y8" s="2" t="s">
@@ -8373,7 +8553,7 @@
         <f t="shared" si="0"/>
         <v>sold</v>
       </c>
-      <c r="Y16" s="7" t="s">
+      <c r="Y16" s="6" t="s">
         <v>673</v>
       </c>
     </row>
